--- a/Designer/Excel/Loc.xlsx
+++ b/Designer/Excel/Loc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\UnityLibs\Designer\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284E8D4A-A107-466A-815F-DAC57C2018E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71DCAB1-003F-4896-86B6-591B5B02B5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loc | Export_Client" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>TC_VAL_TC_A</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>test6</t>
+  </si>
+  <si>
+    <t>LOCIMAGE_VAL_IMAGEA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Res/UI/Sprite/icon.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Res/UI/Sprite/btn_press.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1069,16 +1081,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.375" customWidth="1"/>
+    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -1207,9 +1220,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="A1:S1 A3:S3 B4:B10">
+  <conditionalFormatting sqref="A1:S1 A3:S3 B4:B11">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>公式单元格=TRUE</formula>
     </cfRule>

--- a/Designer/Excel/Loc.xlsx
+++ b/Designer/Excel/Loc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\UnityLibs\Designer\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71DCAB1-003F-4896-86B6-591B5B02B5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224D783E-8445-44E8-9402-63DD092111D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>TC_VAL_TC_A</t>
   </si>
@@ -109,11 +109,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Res/UI/Sprite/icon.png</t>
+    <t>Assets/Res/UI/Sprite/s2.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Res/UI/Sprite/btn_press.png</t>
+    <t>Assets/Res/UI/Sprite/s1.png</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCIMAGE_VAL_TEXTUREA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Res/UI/Texture/t2.png</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +771,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1081,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1225,15 +1240,31 @@
         <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="A1:S1 A3:S3 B4:B11">
+  <conditionalFormatting sqref="A1:S1 A3:S3 B4:B12">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>公式单元格=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>公式单元格=TRUE</formula>
     </cfRule>

--- a/Designer/Excel/Loc.xlsx
+++ b/Designer/Excel/Loc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\UnityLibs\Designer\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224D783E-8445-44E8-9402-63DD092111D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813A20FC-9825-42B9-AEBA-66FE3F07FB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,19 +109,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Res/UI/Sprite/s2.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Res/UI/Sprite/s1.png</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>LOCIMAGE_VAL_TEXTUREA</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Res/UI/Texture/t2.png</t>
+    <t>s2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1240,21 +1240,21 @@
         <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Designer/Excel/Loc.xlsx
+++ b/Designer/Excel/Loc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\UnityLibs\Designer\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fancyHub\UnityLibs\Designer\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813A20FC-9825-42B9-AEBA-66FE3F07FB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1942B0C9-B0AC-4D7C-9CEF-9A5859ACB75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loc | Export_Client" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
-    <t>TC_VAL_TC_A</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -37,37 +34,19 @@
     <t>string</t>
   </si>
   <si>
-    <t>ITEMDATA_NAME_1</t>
-  </si>
-  <si>
     <t>测试手枪</t>
   </si>
   <si>
-    <t>ITEMDATA_NAME_2</t>
-  </si>
-  <si>
     <t>小炮</t>
   </si>
   <si>
-    <t>TESTCOMPOSEKEY_NAME_1_1</t>
-  </si>
-  <si>
     <t>测试</t>
   </si>
   <si>
-    <t>TESTCOMPOSEKEY_NAME_1_2</t>
-  </si>
-  <si>
     <t>你好</t>
   </si>
   <si>
-    <t>TESTCOMPOSEKEY_NAME_2_1</t>
-  </si>
-  <si>
     <t>我好</t>
-  </si>
-  <si>
-    <t>TC_VAL_TC_B</t>
   </si>
   <si>
     <t>id</t>
@@ -105,14 +84,6 @@
     <t>test6</t>
   </si>
   <si>
-    <t>LOCIMAGE_VAL_IMAGEA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOCIMAGE_VAL_TEXTUREA</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>s2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -122,6 +93,42 @@
   </si>
   <si>
     <t>s1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEMDATA_NAME_ID_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEMDATA_NAME_ID_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TESTCOMPOSEKEY_NAME_ID_1_LEVEL_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TESTCOMPOSEKEY_NAME_ID_1_LEVEL_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TESTCOMPOSEKEY_NAME_ID_2_LEVEL_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_VAL_ID_TC_A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC_VAL_ID_TC_B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCIMAGE_VAL_ID_IMAGEA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCIMAGE_VAL_ID_TEXTUREA</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1099,36 +1106,36 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.375" customWidth="1"/>
     <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="28.5">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1147,114 +1154,114 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="9" spans="1:19">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="12" spans="1:19">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
